--- a/belize_data/Step9_startB.xlsx
+++ b/belize_data/Step9_startB.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newgdrive\My Drive\Econ PhD\Work 2023\Quota baskets\belize_basket_edf\belize_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B01C5EE-216B-40E1-B762-325F936EA9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="_bio_0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,8 +24,313 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="100">
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>sci_name</t>
+  </si>
+  <si>
+    <t>comm_name</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Coryphaena hippurus</t>
+  </si>
+  <si>
+    <t>Dolphinfish</t>
+  </si>
+  <si>
+    <t>Kajikia albida</t>
+  </si>
+  <si>
+    <t>Marlin white</t>
+  </si>
+  <si>
+    <t>Kajikia audax</t>
+  </si>
+  <si>
+    <t>Marlin stripe</t>
+  </si>
+  <si>
+    <t>Xiphias gladius</t>
+  </si>
+  <si>
+    <t>Swordfish</t>
+  </si>
+  <si>
+    <t>Thunnus albacares</t>
+  </si>
+  <si>
+    <t>Yellowfin tuna</t>
+  </si>
+  <si>
+    <t>Rachycentron canadum</t>
+  </si>
+  <si>
+    <t>Cobia</t>
+  </si>
+  <si>
+    <t>Acanthocybium solandri</t>
+  </si>
+  <si>
+    <t>Wahoo</t>
+  </si>
+  <si>
+    <t>Seriola dumerili</t>
+  </si>
+  <si>
+    <t>Great amberjack</t>
+  </si>
+  <si>
+    <t>Haemulon plumierii</t>
+  </si>
+  <si>
+    <t>White grunt</t>
+  </si>
+  <si>
+    <t>Lutjanus griseus</t>
+  </si>
+  <si>
+    <t>Gray snapper</t>
+  </si>
+  <si>
+    <t>Haemulon sciurus</t>
+  </si>
+  <si>
+    <t>Bluestriped grunt</t>
+  </si>
+  <si>
+    <t>Sphyraena barracuda</t>
+  </si>
+  <si>
+    <t>Great barracuda</t>
+  </si>
+  <si>
+    <t>Gerres cinereus</t>
+  </si>
+  <si>
+    <t>Mojarra (yellowfin)</t>
+  </si>
+  <si>
+    <t>Diapterus auratus</t>
+  </si>
+  <si>
+    <t>Mojarra (Pompano)</t>
+  </si>
+  <si>
+    <t>Lutjanus apodus</t>
+  </si>
+  <si>
+    <t>Schoolmaster</t>
+  </si>
+  <si>
+    <t>Lutjanus mahogoni</t>
+  </si>
+  <si>
+    <t>Mangrove/Mahogany snapper</t>
+  </si>
+  <si>
+    <t>Haemulon parra</t>
+  </si>
+  <si>
+    <t>Sailor's choice</t>
+  </si>
+  <si>
+    <t>Haemulon album</t>
+  </si>
+  <si>
+    <t>Margate</t>
+  </si>
+  <si>
+    <t>Lutjanus vivanus</t>
+  </si>
+  <si>
+    <t>Yellow-eyed snapper</t>
+  </si>
+  <si>
+    <t>Lutjanus buccanella</t>
+  </si>
+  <si>
+    <t>Deep water blackgin snapper</t>
+  </si>
+  <si>
+    <t>Lutjanus purpureus</t>
+  </si>
+  <si>
+    <t>Southern red snapper</t>
+  </si>
+  <si>
+    <t>Etelis oculatus</t>
+  </si>
+  <si>
+    <t>Queen snapper</t>
+  </si>
+  <si>
+    <t>Rhomboplites aurorubens</t>
+  </si>
+  <si>
+    <t>Vermillion snapper</t>
+  </si>
+  <si>
+    <t>Hyporthodus mystacinus</t>
+  </si>
+  <si>
+    <t>Misty grouper</t>
+  </si>
+  <si>
+    <t>Lutjanus cyanopterus</t>
+  </si>
+  <si>
+    <t>Cubera snapper</t>
+  </si>
+  <si>
+    <t>Lutjanus jocu</t>
+  </si>
+  <si>
+    <t>Dog snapper</t>
+  </si>
+  <si>
+    <t>Muguil spp.</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Sardinella spp.</t>
+  </si>
+  <si>
+    <t>Sprattus spp.</t>
+  </si>
+  <si>
+    <t>Centropomus undecimalis</t>
+  </si>
+  <si>
+    <t>Snook</t>
+  </si>
+  <si>
+    <t>Petenia splendida</t>
+  </si>
+  <si>
+    <t>Bay snook</t>
+  </si>
+  <si>
+    <t>Ictalurus furcatus</t>
+  </si>
+  <si>
+    <t>Black-eyed catfish</t>
+  </si>
+  <si>
+    <t>Cichlosomas urphthalmus</t>
+  </si>
+  <si>
+    <t>Crana</t>
+  </si>
+  <si>
+    <t>Cichlasoma synspilum</t>
+  </si>
+  <si>
+    <t>Tuba</t>
+  </si>
+  <si>
+    <t>Scomberomorus maculatus</t>
+  </si>
+  <si>
+    <t>Spanish mackerel</t>
+  </si>
+  <si>
+    <t>Caranx hippos</t>
+  </si>
+  <si>
+    <t>Crevalle</t>
+  </si>
+  <si>
+    <t>Scomberomorus cavalla</t>
+  </si>
+  <si>
+    <t>King mackerel</t>
+  </si>
+  <si>
+    <t>Scomberomorus regalis</t>
+  </si>
+  <si>
+    <t>Cerro mackerel</t>
+  </si>
+  <si>
+    <t>Mycteroperca bonaci</t>
+  </si>
+  <si>
+    <t>Black grouper</t>
+  </si>
+  <si>
+    <t>Epinephelus itajara</t>
+  </si>
+  <si>
+    <t>Goliath grouper</t>
+  </si>
+  <si>
+    <t>Mycteroperca tigris</t>
+  </si>
+  <si>
+    <t>Tiger grouper</t>
+  </si>
+  <si>
+    <t>Mycteroperca venenosa</t>
+  </si>
+  <si>
+    <t>Yellowfin grouper</t>
+  </si>
+  <si>
+    <t>Lutjanus analis</t>
+  </si>
+  <si>
+    <t>Mutton snapper</t>
+  </si>
+  <si>
+    <t>Epinephelus guttatus</t>
+  </si>
+  <si>
+    <t>Red hind</t>
+  </si>
+  <si>
+    <t>Lachnolaimus maximus</t>
+  </si>
+  <si>
+    <t>Hogfish</t>
+  </si>
+  <si>
+    <t>Epinephelus striatus</t>
+  </si>
+  <si>
+    <t>Nassau grouper</t>
+  </si>
+  <si>
+    <t>Ocyurus chrysurus</t>
+  </si>
+  <si>
+    <t>Yellowtail snapper</t>
+  </si>
+  <si>
+    <t>Lutjanus synagris</t>
+  </si>
+  <si>
+    <t>Lane snapper</t>
+  </si>
+  <si>
+    <t>b_0_percentage</t>
+  </si>
+  <si>
+    <t>basket</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +641,705 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" t="s">
+        <v>97</v>
+      </c>
+      <c r="E49">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/belize_data/Step9_startB.xlsx
+++ b/belize_data/Step9_startB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newgdrive\My Drive\Econ PhD\Work 2023\Quota baskets\belize_basket_edf\belize_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B01C5EE-216B-40E1-B762-325F936EA9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3A7FA3-1C6E-4536-892C-0B2CEDC51732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="100">
   <si>
     <t>region</t>
   </si>
@@ -360,8 +360,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,7 +649,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -680,6 +684,9 @@
       <c r="E2">
         <v>1</v>
       </c>
+      <c r="F2" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -694,6 +701,9 @@
       <c r="E3">
         <v>1</v>
       </c>
+      <c r="F3" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -708,6 +718,9 @@
       <c r="E4">
         <v>1</v>
       </c>
+      <c r="F4" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -722,6 +735,9 @@
       <c r="E5">
         <v>1</v>
       </c>
+      <c r="F5" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -736,6 +752,9 @@
       <c r="E6">
         <v>1</v>
       </c>
+      <c r="F6" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -750,6 +769,9 @@
       <c r="E7">
         <v>1</v>
       </c>
+      <c r="F7" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -764,6 +786,9 @@
       <c r="E8">
         <v>1</v>
       </c>
+      <c r="F8" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -778,6 +803,9 @@
       <c r="E9">
         <v>1</v>
       </c>
+      <c r="F9" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -792,6 +820,9 @@
       <c r="E10">
         <v>2</v>
       </c>
+      <c r="F10" s="1">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -806,6 +837,9 @@
       <c r="E11">
         <v>2</v>
       </c>
+      <c r="F11" s="1">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -820,6 +854,9 @@
       <c r="E12">
         <v>2</v>
       </c>
+      <c r="F12" s="1">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -834,6 +871,9 @@
       <c r="E13">
         <v>2</v>
       </c>
+      <c r="F13" s="1">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -848,6 +888,9 @@
       <c r="E14">
         <v>2</v>
       </c>
+      <c r="F14" s="1">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -862,6 +905,9 @@
       <c r="E15">
         <v>2</v>
       </c>
+      <c r="F15" s="1">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -876,8 +922,11 @@
       <c r="E16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -890,8 +939,11 @@
       <c r="E17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -904,8 +956,11 @@
       <c r="E18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -918,8 +973,11 @@
       <c r="E19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -932,8 +990,11 @@
       <c r="E20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -946,8 +1007,11 @@
       <c r="E21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -960,8 +1024,11 @@
       <c r="E22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -974,8 +1041,11 @@
       <c r="E23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -988,8 +1058,11 @@
       <c r="E24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1002,8 +1075,11 @@
       <c r="E25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -1016,8 +1092,11 @@
       <c r="E26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -1030,8 +1109,11 @@
       <c r="E27">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -1044,8 +1126,11 @@
       <c r="E28">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -1058,8 +1143,11 @@
       <c r="E29">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -1072,8 +1160,11 @@
       <c r="E30">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1086,8 +1177,11 @@
       <c r="E31">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -1100,8 +1194,11 @@
       <c r="E32">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -1114,8 +1211,11 @@
       <c r="E33">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -1128,8 +1228,11 @@
       <c r="E34">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -1142,8 +1245,11 @@
       <c r="E35">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -1156,8 +1262,11 @@
       <c r="E36">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1170,8 +1279,11 @@
       <c r="E37">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1184,8 +1296,11 @@
       <c r="E38">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1198,8 +1313,11 @@
       <c r="E39">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1212,8 +1330,11 @@
       <c r="E40">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1226,8 +1347,11 @@
       <c r="E41">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1240,8 +1364,11 @@
       <c r="E42">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1254,8 +1381,11 @@
       <c r="E43">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -1268,8 +1398,11 @@
       <c r="E44">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -1282,8 +1415,11 @@
       <c r="E45">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -1296,8 +1432,11 @@
       <c r="E46">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -1310,8 +1449,11 @@
       <c r="E47">
         <v>12</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -1324,8 +1466,11 @@
       <c r="E48">
         <v>13</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -1337,6 +1482,9 @@
       </c>
       <c r="E49">
         <v>13</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
